--- a/Federated Electric Market/result_excel/test_loss/frac/frac=0.2.xlsx
+++ b/Federated Electric Market/result_excel/test_loss/frac/frac=0.2.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>130.2471820099873</v>
+        <v>2.307407864753936</v>
       </c>
       <c r="C2" t="n">
-        <v>11.21594181412147</v>
+        <v>1.088195670411437</v>
       </c>
       <c r="D2" t="n">
-        <v>11.41258875146158</v>
+        <v>1.519015426107956</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>87.58446896584692</v>
+        <v>2.093384622027374</v>
       </c>
       <c r="C3" t="n">
-        <v>9.133204494559001</v>
+        <v>1.049730763865194</v>
       </c>
       <c r="D3" t="n">
-        <v>9.358657433940348</v>
+        <v>1.446853351942544</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8069361144463</v>
+        <v>1.283702909135405</v>
       </c>
       <c r="C4" t="n">
-        <v>3.196131226063072</v>
+        <v>0.8902108744417945</v>
       </c>
       <c r="D4" t="n">
-        <v>3.578677984178837</v>
+        <v>1.133006138171989</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.82425544943386</v>
+        <v>0.7759941097127064</v>
       </c>
       <c r="C5" t="n">
-        <v>4.536361367660795</v>
+        <v>0.6795285859075767</v>
       </c>
       <c r="D5" t="n">
-        <v>4.671643763113136</v>
+        <v>0.8809052785133634</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.97977431663748</v>
+        <v>0.5077401467352474</v>
       </c>
       <c r="C6" t="n">
-        <v>3.286696354599308</v>
+        <v>0.5482402509361511</v>
       </c>
       <c r="D6" t="n">
-        <v>3.461181058054819</v>
+        <v>0.71255887246967</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.43207220981878</v>
+        <v>0.8518760889061389</v>
       </c>
       <c r="C7" t="n">
-        <v>4.350182200477301</v>
+        <v>0.7048053797092599</v>
       </c>
       <c r="D7" t="n">
-        <v>4.52018497517732</v>
+        <v>0.9229713369905583</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.58914525799971</v>
+        <v>1.003987312484938</v>
       </c>
       <c r="C8" t="n">
-        <v>4.382013450283003</v>
+        <v>0.7039373757655141</v>
       </c>
       <c r="D8" t="n">
-        <v>4.64641208439369</v>
+        <v>1.001991672862074</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.66636312554157</v>
+        <v>0.8891340458114803</v>
       </c>
       <c r="C9" t="n">
-        <v>3.581868296817371</v>
+        <v>0.7486855242375745</v>
       </c>
       <c r="D9" t="n">
-        <v>3.829668801024649</v>
+        <v>0.9429390467105921</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.65074626305912</v>
+        <v>0.8264817166891514</v>
       </c>
       <c r="C10" t="n">
-        <v>3.126289144268755</v>
+        <v>0.7063532908239942</v>
       </c>
       <c r="D10" t="n">
-        <v>3.413318951264168</v>
+        <v>0.9091103985155771</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.287275871086338</v>
+        <v>0.7064211836643611</v>
       </c>
       <c r="C11" t="n">
-        <v>1.549604564932018</v>
+        <v>0.6834950379217379</v>
       </c>
       <c r="D11" t="n">
-        <v>1.813084628771183</v>
+        <v>0.8404886576655042</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.77611487546108</v>
+        <v>0.9323184082210698</v>
       </c>
       <c r="C12" t="n">
-        <v>3.441107642159318</v>
+        <v>0.7130792229018489</v>
       </c>
       <c r="D12" t="n">
-        <v>3.574369157692177</v>
+        <v>0.965566366554402</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.242778439489363</v>
+        <v>0.7173818216225737</v>
       </c>
       <c r="C13" t="n">
-        <v>1.246899100771501</v>
+        <v>0.7066159430874923</v>
       </c>
       <c r="D13" t="n">
-        <v>1.497590878541053</v>
+        <v>0.846983955941654</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.30570782051632</v>
+        <v>0.7333470705981066</v>
       </c>
       <c r="C14" t="n">
-        <v>2.998508654338232</v>
+        <v>0.6921837354783086</v>
       </c>
       <c r="D14" t="n">
-        <v>3.362396142710778</v>
+        <v>0.856356859374704</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.667238421880351</v>
+        <v>1.576054803841375</v>
       </c>
       <c r="C15" t="n">
-        <v>1.015454589196235</v>
+        <v>1.070439180741845</v>
       </c>
       <c r="D15" t="n">
-        <v>1.291215869589725</v>
+        <v>1.255410213373053</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.931241155714837</v>
+        <v>0.7567762207508969</v>
       </c>
       <c r="C16" t="n">
-        <v>2.435170981709785</v>
+        <v>0.6891001591159185</v>
       </c>
       <c r="D16" t="n">
-        <v>2.632725043698038</v>
+        <v>0.8699288595919191</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.007402349250179</v>
+        <v>0.3797719744921992</v>
       </c>
       <c r="C17" t="n">
-        <v>2.492377165141644</v>
+        <v>0.4874127047271237</v>
       </c>
       <c r="D17" t="n">
-        <v>2.647149853946727</v>
+        <v>0.616256419432852</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.52659742853808</v>
+        <v>0.7628260665540425</v>
       </c>
       <c r="C18" t="n">
-        <v>5.081687642168801</v>
+        <v>0.6813318556404958</v>
       </c>
       <c r="D18" t="n">
-        <v>5.24657959327199</v>
+        <v>0.8733991450385342</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10.71905646657183</v>
+        <v>0.7734486616918403</v>
       </c>
       <c r="C19" t="n">
-        <v>2.880419152813865</v>
+        <v>0.6763319268080631</v>
       </c>
       <c r="D19" t="n">
-        <v>3.273997016884993</v>
+        <v>0.8794593007591882</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.64534698221939</v>
+        <v>0.5080602217963164</v>
       </c>
       <c r="C20" t="n">
-        <v>3.40350271154951</v>
+        <v>0.5593397855663115</v>
       </c>
       <c r="D20" t="n">
-        <v>3.556029665542653</v>
+        <v>0.7127834326051051</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.2030512213077</v>
+        <v>0.5403264623659436</v>
       </c>
       <c r="C21" t="n">
-        <v>3.406220441270485</v>
+        <v>0.5812652486270352</v>
       </c>
       <c r="D21" t="n">
-        <v>3.633600311166282</v>
+        <v>0.7350690187771102</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14.28009744171438</v>
+        <v>0.5590920923391316</v>
       </c>
       <c r="C22" t="n">
-        <v>3.563800891720251</v>
+        <v>0.5911810606036383</v>
       </c>
       <c r="D22" t="n">
-        <v>3.778901618422261</v>
+        <v>0.7477246099595303</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.901507802326469</v>
+        <v>0.3173742221820943</v>
       </c>
       <c r="C23" t="n">
-        <v>1.752017612782653</v>
+        <v>0.4337038638818467</v>
       </c>
       <c r="D23" t="n">
-        <v>1.975223481615807</v>
+        <v>0.5633597626580144</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.07749039003423</v>
+        <v>0.7131153154667593</v>
       </c>
       <c r="C24" t="n">
-        <v>2.347662262420345</v>
+        <v>0.6674785898236548</v>
       </c>
       <c r="D24" t="n">
-        <v>2.660355312741933</v>
+        <v>0.8444615535752704</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6986829286734287</v>
+        <v>0.994042861907268</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6697625876874869</v>
+        <v>0.8375794247742908</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8358725552818616</v>
+        <v>0.9970169817547081</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.292399625694084</v>
+        <v>1.031364253334259</v>
       </c>
       <c r="C26" t="n">
-        <v>1.954956494447597</v>
+        <v>0.8369903039268253</v>
       </c>
       <c r="D26" t="n">
-        <v>2.300521598614993</v>
+        <v>1.015561053474511</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.19234343694286</v>
+        <v>0.9910491476484862</v>
       </c>
       <c r="C27" t="n">
-        <v>4.038135553099088</v>
+        <v>0.7969615339654582</v>
       </c>
       <c r="D27" t="n">
-        <v>4.380906691193372</v>
+        <v>0.9955145140320588</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7996645859617294</v>
+        <v>0.4942511965916824</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7638659015319084</v>
+        <v>0.5968148189765871</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8942396691948582</v>
+        <v>0.7030300111600375</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.42179719852934</v>
+        <v>0.6615910706283438</v>
       </c>
       <c r="C29" t="n">
-        <v>3.097713341832241</v>
+        <v>0.6279585560572656</v>
       </c>
       <c r="D29" t="n">
-        <v>3.37961494826398</v>
+        <v>0.8133824872889407</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13.28961839773849</v>
+        <v>0.6076975336476417</v>
       </c>
       <c r="C30" t="n">
-        <v>3.335925675688585</v>
+        <v>0.5772563041425434</v>
       </c>
       <c r="D30" t="n">
-        <v>3.645492888175546</v>
+        <v>0.7795495710008707</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19.151027376563</v>
+        <v>0.8175494483129249</v>
       </c>
       <c r="C31" t="n">
-        <v>4.1285766525409</v>
+        <v>0.7004417007713277</v>
       </c>
       <c r="D31" t="n">
-        <v>4.37618868155419</v>
+        <v>0.904184410567294</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.951238446740382</v>
+        <v>0.7540148929777731</v>
       </c>
       <c r="C32" t="n">
-        <v>1.7632743120319</v>
+        <v>0.7100053658476146</v>
       </c>
       <c r="D32" t="n">
-        <v>1.987772232108191</v>
+        <v>0.8683403094281488</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.266652766859783</v>
+        <v>0.9824879950770385</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9373216338309017</v>
+        <v>0.8384655029064351</v>
       </c>
       <c r="D33" t="n">
-        <v>1.125456692574078</v>
+        <v>0.9912053243788789</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.464359569687068</v>
+        <v>0.4937498215438773</v>
       </c>
       <c r="C34" t="n">
-        <v>1.751598077194214</v>
+        <v>0.509209468359973</v>
       </c>
       <c r="D34" t="n">
-        <v>1.861279014464803</v>
+        <v>0.70267333914407</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>57.39900440552519</v>
+        <v>1.41034654357467</v>
       </c>
       <c r="C35" t="n">
-        <v>7.430730282090964</v>
+        <v>0.9146886440100813</v>
       </c>
       <c r="D35" t="n">
-        <v>7.576213064950403</v>
+        <v>1.187580120907499</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>42.69315799756284</v>
+        <v>0.7685076338952829</v>
       </c>
       <c r="C36" t="n">
-        <v>6.394510335657853</v>
+        <v>0.7140534640910329</v>
       </c>
       <c r="D36" t="n">
-        <v>6.534000152859107</v>
+        <v>0.8766456718054809</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.221545854022671</v>
+        <v>0.7814615038641702</v>
       </c>
       <c r="C37" t="n">
-        <v>1.317005574144635</v>
+        <v>0.7244156161607997</v>
       </c>
       <c r="D37" t="n">
-        <v>1.490485106944269</v>
+        <v>0.8840031130398638</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.266642279370205</v>
+        <v>0.5780505735500329</v>
       </c>
       <c r="C38" t="n">
-        <v>1.816504399714985</v>
+        <v>0.5813353955464258</v>
       </c>
       <c r="D38" t="n">
-        <v>2.065585214744288</v>
+        <v>0.7602963721799761</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.07512305879388</v>
+        <v>0.5280105195057557</v>
       </c>
       <c r="C39" t="n">
-        <v>1.959506692622319</v>
+        <v>0.5614630839685733</v>
       </c>
       <c r="D39" t="n">
-        <v>2.25280337774824</v>
+        <v>0.7266433234440097</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>42.06907102388104</v>
+        <v>0.9560225526281856</v>
       </c>
       <c r="C40" t="n">
-        <v>6.266034690337388</v>
+        <v>0.7606048434293552</v>
       </c>
       <c r="D40" t="n">
-        <v>6.486067454465844</v>
+        <v>0.9777640577502251</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.18966977662285</v>
+        <v>0.3961481655919425</v>
       </c>
       <c r="C41" t="n">
-        <v>2.118412918614668</v>
+        <v>0.5060833207010108</v>
       </c>
       <c r="D41" t="n">
-        <v>2.278084672838753</v>
+        <v>0.6294030231830338</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.528050964356662</v>
+        <v>0.5032624024071326</v>
       </c>
       <c r="C42" t="n">
-        <v>1.878905831048268</v>
+        <v>0.5554261148425578</v>
       </c>
       <c r="D42" t="n">
-        <v>2.127921747705179</v>
+        <v>0.7094098973140511</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19.69944938459263</v>
+        <v>1.188672042881541</v>
       </c>
       <c r="C43" t="n">
-        <v>4.153570429524894</v>
+        <v>0.7504706582902293</v>
       </c>
       <c r="D43" t="n">
-        <v>4.438406176161959</v>
+        <v>1.090262373413639</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.744800715339544</v>
+        <v>0.4089801573808726</v>
       </c>
       <c r="C44" t="n">
-        <v>3.003664492636515</v>
+        <v>0.4917816999148716</v>
       </c>
       <c r="D44" t="n">
-        <v>3.121666336324167</v>
+        <v>0.6395155646118963</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10.03836601054915</v>
+        <v>0.4243874724175163</v>
       </c>
       <c r="C45" t="n">
-        <v>3.104933131465273</v>
+        <v>0.5103631338196749</v>
       </c>
       <c r="D45" t="n">
-        <v>3.16833805181031</v>
+        <v>0.651450283918517</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.990971736721084</v>
+        <v>0.4566760670201893</v>
       </c>
       <c r="C46" t="n">
-        <v>1.76362529216993</v>
+        <v>0.5441355119737207</v>
       </c>
       <c r="D46" t="n">
-        <v>1.997741659154427</v>
+        <v>0.6757781196666471</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.36850008402669</v>
+        <v>0.4515009493877951</v>
       </c>
       <c r="C47" t="n">
-        <v>3.525437875229652</v>
+        <v>0.5311374732067596</v>
       </c>
       <c r="D47" t="n">
-        <v>3.656295951373013</v>
+        <v>0.6719382035483583</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.88566902063202</v>
+        <v>0.2651275263291688</v>
       </c>
       <c r="C48" t="n">
-        <v>1.246073982969808</v>
+        <v>0.3908034718620713</v>
       </c>
       <c r="D48" t="n">
-        <v>1.373196643103973</v>
+        <v>0.5149053566716594</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.397915183985065</v>
+        <v>0.425246387745471</v>
       </c>
       <c r="C49" t="n">
-        <v>2.378392224179434</v>
+        <v>0.5261881625066659</v>
       </c>
       <c r="D49" t="n">
-        <v>2.529410046628475</v>
+        <v>0.6521091839143741</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.079382301634251</v>
+        <v>0.4360147088546093</v>
       </c>
       <c r="C50" t="n">
-        <v>2.241912540233389</v>
+        <v>0.5048878633738662</v>
       </c>
       <c r="D50" t="n">
-        <v>2.465640343122705</v>
+        <v>0.6603140986338315</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.19339020868388</v>
+        <v>0.3174781752360806</v>
       </c>
       <c r="C51" t="n">
-        <v>2.076663122254103</v>
+        <v>0.4625537998324401</v>
       </c>
       <c r="D51" t="n">
-        <v>2.278901096731466</v>
+        <v>0.5634520168000826</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.86288598287727</v>
+        <v>0.4119352132567389</v>
       </c>
       <c r="C52" t="n">
-        <v>2.261553347533885</v>
+        <v>0.4981343496057954</v>
       </c>
       <c r="D52" t="n">
-        <v>2.421339708276653</v>
+        <v>0.6418217924445531</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.659563667005096</v>
+        <v>0.404093224528399</v>
       </c>
       <c r="C53" t="n">
-        <v>1.43706826406499</v>
+        <v>0.5041414373233066</v>
       </c>
       <c r="D53" t="n">
-        <v>1.63081687108182</v>
+        <v>0.6356832737522665</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.392495452468308</v>
+        <v>0.2857171855037161</v>
       </c>
       <c r="C54" t="n">
-        <v>1.717052824656768</v>
+        <v>0.4451586148240686</v>
       </c>
       <c r="D54" t="n">
-        <v>1.841872811153992</v>
+        <v>0.5345251963226019</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.953641867880743</v>
+        <v>0.5030524567919445</v>
       </c>
       <c r="C55" t="n">
-        <v>3.047011923694696</v>
+        <v>0.5473782719468642</v>
       </c>
       <c r="D55" t="n">
-        <v>3.154939281171786</v>
+        <v>0.7092619098696508</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.804322543696919</v>
+        <v>0.3908200750056548</v>
       </c>
       <c r="C56" t="n">
-        <v>2.651360937235427</v>
+        <v>0.4903956614535376</v>
       </c>
       <c r="D56" t="n">
-        <v>2.793621761029384</v>
+        <v>0.6251560405256074</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.695384325705067</v>
+        <v>0.2154058442801645</v>
       </c>
       <c r="C57" t="n">
-        <v>2.465595258204509</v>
+        <v>0.3762951341357014</v>
       </c>
       <c r="D57" t="n">
-        <v>2.587544072224678</v>
+        <v>0.4641183515873559</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.35219053861915</v>
+        <v>0.3624954900913201</v>
       </c>
       <c r="C58" t="n">
-        <v>1.883350309955367</v>
+        <v>0.466313309915835</v>
       </c>
       <c r="D58" t="n">
-        <v>2.086190436805603</v>
+        <v>0.6020759836526617</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>42.68296599965674</v>
+        <v>0.9158432202506672</v>
       </c>
       <c r="C59" t="n">
-        <v>6.424859483763826</v>
+        <v>0.7371340769861066</v>
       </c>
       <c r="D59" t="n">
-        <v>6.533220186068792</v>
+        <v>0.9569969802724914</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.963980509712566</v>
+        <v>0.6471570997811239</v>
       </c>
       <c r="C60" t="n">
-        <v>2.013416241521262</v>
+        <v>0.6253831130346774</v>
       </c>
       <c r="D60" t="n">
-        <v>2.227999216721713</v>
+        <v>0.8044607509264351</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8.709828522401551</v>
+        <v>0.3855241344189024</v>
       </c>
       <c r="C61" t="n">
-        <v>2.787302907241714</v>
+        <v>0.4567519319157176</v>
       </c>
       <c r="D61" t="n">
-        <v>2.951241861047913</v>
+        <v>0.6209058981994795</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.03571940157687</v>
+        <v>0.7754612525728916</v>
       </c>
       <c r="C62" t="n">
-        <v>3.324157311159028</v>
+        <v>0.6945060297976817</v>
       </c>
       <c r="D62" t="n">
-        <v>3.746427551892185</v>
+        <v>0.8806027779725042</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.034721396235853</v>
+        <v>0.6591052220833382</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8490139029658642</v>
+        <v>0.702121471331509</v>
       </c>
       <c r="D63" t="n">
-        <v>1.017212561973088</v>
+        <v>0.8118529559491289</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.048630053275007</v>
+        <v>0.3819548141911034</v>
       </c>
       <c r="C64" t="n">
-        <v>2.910675412432039</v>
+        <v>0.4726185522615756</v>
       </c>
       <c r="D64" t="n">
-        <v>3.008094089830803</v>
+        <v>0.6180249300724877</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.570374500429295</v>
+        <v>0.6390189724052607</v>
       </c>
       <c r="C65" t="n">
-        <v>2.845082385122437</v>
+        <v>0.6407847597370734</v>
       </c>
       <c r="D65" t="n">
-        <v>3.093602188457542</v>
+        <v>0.7993866226083977</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.4180642829092</v>
+        <v>0.323811851036301</v>
       </c>
       <c r="C66" t="n">
-        <v>3.698014043553166</v>
+        <v>0.4365713528915687</v>
       </c>
       <c r="D66" t="n">
-        <v>3.797112624469967</v>
+        <v>0.5690446828117288</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10.20485655751192</v>
+        <v>0.5181144487222153</v>
       </c>
       <c r="C67" t="n">
-        <v>3.063625891946612</v>
+        <v>0.5436877327537266</v>
       </c>
       <c r="D67" t="n">
-        <v>3.194504117623253</v>
+        <v>0.7198016731865906</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.59282011624519</v>
+        <v>1.305106623498359</v>
       </c>
       <c r="C68" t="n">
-        <v>5.099956337224596</v>
+        <v>0.8761561896991645</v>
       </c>
       <c r="D68" t="n">
-        <v>5.252886836421016</v>
+        <v>1.142412632763818</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>24.52070204610027</v>
+        <v>0.7581096104737153</v>
       </c>
       <c r="C69" t="n">
-        <v>4.816695823191949</v>
+        <v>0.6262335981756341</v>
       </c>
       <c r="D69" t="n">
-        <v>4.951838249185879</v>
+        <v>0.8706949009117461</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25.8230047393216</v>
+        <v>1.022843132880069</v>
       </c>
       <c r="C70" t="n">
-        <v>4.943815723078484</v>
+        <v>0.7392485813788394</v>
       </c>
       <c r="D70" t="n">
-        <v>5.081634061925514</v>
+        <v>1.011357074865287</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.70678618215678</v>
+        <v>0.6171747287562708</v>
       </c>
       <c r="C71" t="n">
-        <v>3.156032429786682</v>
+        <v>0.6153476443341604</v>
       </c>
       <c r="D71" t="n">
-        <v>3.272122580551772</v>
+        <v>0.7856046898767031</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.688395445572398</v>
+        <v>0.2664151011448924</v>
       </c>
       <c r="C72" t="n">
-        <v>2.722865597055149</v>
+        <v>0.3970418872269706</v>
       </c>
       <c r="D72" t="n">
-        <v>2.77279560111675</v>
+        <v>0.5161541447522169</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.45615938099855</v>
+        <v>0.4381195665042133</v>
       </c>
       <c r="C73" t="n">
-        <v>3.952196013090997</v>
+        <v>0.5142355277208259</v>
       </c>
       <c r="D73" t="n">
-        <v>4.056619205816409</v>
+        <v>0.6619060103248899</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14.69294650666622</v>
+        <v>0.5299299135142527</v>
       </c>
       <c r="C74" t="n">
-        <v>3.679303444813964</v>
+        <v>0.572814144379667</v>
       </c>
       <c r="D74" t="n">
-        <v>3.833137945165321</v>
+        <v>0.7279628517405629</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.045975108887503</v>
+        <v>0.5755505897562094</v>
       </c>
       <c r="C75" t="n">
-        <v>2.381975260458036</v>
+        <v>0.6189096592402745</v>
       </c>
       <c r="D75" t="n">
-        <v>2.654425570417732</v>
+        <v>0.7586505056718867</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.55587857871798</v>
+        <v>0.4672815898381736</v>
       </c>
       <c r="C76" t="n">
-        <v>1.662917955541497</v>
+        <v>0.5497608877589121</v>
       </c>
       <c r="D76" t="n">
-        <v>1.885703735669519</v>
+        <v>0.6835799805715301</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.903300653002673</v>
+        <v>0.3592313568565339</v>
       </c>
       <c r="C77" t="n">
-        <v>1.750059426562909</v>
+        <v>0.4830063670592713</v>
       </c>
       <c r="D77" t="n">
-        <v>1.975677264383703</v>
+        <v>0.5993591217763636</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.68120749203717</v>
+        <v>0.5434580911144861</v>
       </c>
       <c r="C78" t="n">
-        <v>3.279462095438075</v>
+        <v>0.5617533132746851</v>
       </c>
       <c r="D78" t="n">
-        <v>3.417778151378052</v>
+        <v>0.7371961008540985</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.078970048057771</v>
+        <v>0.7647194546005186</v>
       </c>
       <c r="C79" t="n">
-        <v>1.978538955550008</v>
+        <v>0.72039187388779</v>
       </c>
       <c r="D79" t="n">
-        <v>2.253657038694613</v>
+        <v>0.8744823923902176</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.000617743668317</v>
+        <v>0.2766639396806159</v>
       </c>
       <c r="C80" t="n">
-        <v>2.114675111795394</v>
+        <v>0.4110123556100799</v>
       </c>
       <c r="D80" t="n">
-        <v>2.236206104917057</v>
+        <v>0.5259885356931422</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>8.832348112111028</v>
+        <v>0.6294178138548493</v>
       </c>
       <c r="C81" t="n">
-        <v>2.812634328564036</v>
+        <v>0.5879927822079304</v>
       </c>
       <c r="D81" t="n">
-        <v>2.971926666677869</v>
+        <v>0.7933585657537513</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.39531493654637</v>
+        <v>0.6395287216286593</v>
       </c>
       <c r="C82" t="n">
-        <v>1.814961079668793</v>
+        <v>0.6500169992961061</v>
       </c>
       <c r="D82" t="n">
-        <v>2.096500640721669</v>
+        <v>0.7997053967734988</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.435718213143305</v>
+        <v>0.7105154861072378</v>
       </c>
       <c r="C83" t="n">
-        <v>1.278459905393093</v>
+        <v>0.695477576338507</v>
       </c>
       <c r="D83" t="n">
-        <v>1.560678766800941</v>
+        <v>0.8429208065454534</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.537242949472109</v>
+        <v>0.7253839610471686</v>
       </c>
       <c r="C84" t="n">
-        <v>1.043016710925102</v>
+        <v>0.713963061608286</v>
       </c>
       <c r="D84" t="n">
-        <v>1.239856019653939</v>
+        <v>0.8516947581423574</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.833190363004255</v>
+        <v>0.4093002579909154</v>
       </c>
       <c r="C85" t="n">
-        <v>2.589268756550279</v>
+        <v>0.5074348304262856</v>
       </c>
       <c r="D85" t="n">
-        <v>2.798783729230298</v>
+        <v>0.6397657836981557</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19.78503960050324</v>
+        <v>0.7605502728649119</v>
       </c>
       <c r="C86" t="n">
-        <v>4.356091060298905</v>
+        <v>0.6375585665185703</v>
       </c>
       <c r="D86" t="n">
-        <v>4.448037724716736</v>
+        <v>0.8720953347340599</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.691834005852913</v>
+        <v>0.5651353072696507</v>
       </c>
       <c r="C87" t="n">
-        <v>1.103911206863398</v>
+        <v>0.6263396527123708</v>
       </c>
       <c r="D87" t="n">
-        <v>1.300705195596955</v>
+        <v>0.7517548185875835</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.348722125064792</v>
+        <v>0.7363072194798614</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9626248826280316</v>
+        <v>0.737252975037703</v>
       </c>
       <c r="D88" t="n">
-        <v>1.161344963852167</v>
+        <v>0.8580834571764342</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.907597697887629</v>
+        <v>0.3744576321808256</v>
       </c>
       <c r="C89" t="n">
-        <v>2.283501789796161</v>
+        <v>0.4989979123659316</v>
       </c>
       <c r="D89" t="n">
-        <v>2.430555018486031</v>
+        <v>0.6119294339879604</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.958640362017464</v>
+        <v>0.3615300023351857</v>
       </c>
       <c r="C90" t="n">
-        <v>2.725446696612543</v>
+        <v>0.486250272653919</v>
       </c>
       <c r="D90" t="n">
-        <v>2.821106230190112</v>
+        <v>0.6012736501254531</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>39.48026979343177</v>
+        <v>1.049625143632978</v>
       </c>
       <c r="C91" t="n">
-        <v>6.225898025869967</v>
+        <v>0.7728549631730175</v>
       </c>
       <c r="D91" t="n">
-        <v>6.283332697974203</v>
+        <v>1.024512149089984</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6328051459640767</v>
+        <v>0.3322334805108312</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6286114917042237</v>
+        <v>0.4617115553716435</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7954905065203963</v>
+        <v>0.5763969816982314</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8156469610831942</v>
+        <v>0.3951972124905811</v>
       </c>
       <c r="C93" t="n">
-        <v>0.726969788674328</v>
+        <v>0.52959646476324</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9031317517855267</v>
+        <v>0.6286471287539466</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.551817469204757</v>
+        <v>0.1283484435003409</v>
       </c>
       <c r="C94" t="n">
-        <v>2.460976718276539</v>
+        <v>0.2778835240193571</v>
       </c>
       <c r="D94" t="n">
-        <v>2.55965182577724</v>
+        <v>0.3582575100403911</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10.88704676803599</v>
+        <v>0.2163752394679461</v>
       </c>
       <c r="C95" t="n">
-        <v>3.211158899637102</v>
+        <v>0.3625616819201434</v>
       </c>
       <c r="D95" t="n">
-        <v>3.299552510271051</v>
+        <v>0.4651615197627014</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9143061854159669</v>
+        <v>0.5158339181411973</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7590455612808843</v>
+        <v>0.6132531909458975</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9561935920178334</v>
+        <v>0.718215788006082</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.483718728825724</v>
+        <v>0.4162251151957577</v>
       </c>
       <c r="C97" t="n">
-        <v>1.030859934608704</v>
+        <v>0.53511534720558</v>
       </c>
       <c r="D97" t="n">
-        <v>1.218079935318583</v>
+        <v>0.6451551094083946</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.384608448570695</v>
+        <v>0.1834794059978408</v>
       </c>
       <c r="C98" t="n">
-        <v>1.758719730245105</v>
+        <v>0.3506852438620118</v>
       </c>
       <c r="D98" t="n">
-        <v>1.839730536945749</v>
+        <v>0.4283449614479443</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.87176181910507</v>
+        <v>0.5710036645589235</v>
       </c>
       <c r="C99" t="n">
-        <v>3.524976051289654</v>
+        <v>0.5663152238729344</v>
       </c>
       <c r="D99" t="n">
-        <v>3.587723765719021</v>
+        <v>0.7556478442759719</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.185822428356592</v>
+        <v>0.2499744302877389</v>
       </c>
       <c r="C100" t="n">
-        <v>1.343125561715739</v>
+        <v>0.4027030447089499</v>
       </c>
       <c r="D100" t="n">
-        <v>1.478452714278205</v>
+        <v>0.4999744296338952</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>8.12739269519005</v>
+        <v>0.1744151840927458</v>
       </c>
       <c r="C101" t="n">
-        <v>2.788412573389656</v>
+        <v>0.3249745031593734</v>
       </c>
       <c r="D101" t="n">
-        <v>2.850858238353856</v>
+        <v>0.4176304396146739</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.161614967331447</v>
+        <v>0.3926250808245978</v>
       </c>
       <c r="C102" t="n">
-        <v>1.8895351621553</v>
+        <v>0.4699305178974072</v>
       </c>
       <c r="D102" t="n">
-        <v>2.040003668460292</v>
+        <v>0.6265980217209418</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7780626243066328</v>
+        <v>0.333625780301202</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7017580190996767</v>
+        <v>0.4718234480623886</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8820785817072267</v>
+        <v>0.5776034801671489</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8965857101679345</v>
+        <v>0.1882330988140313</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8175703313516988</v>
+        <v>0.345236291055002</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9468820994019976</v>
+        <v>0.4338583856675255</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5269182072916704</v>
+        <v>0.3819286196780259</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5635566103444783</v>
+        <v>0.527430078308101</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7258913192012082</v>
+        <v>0.6180037375922786</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.82181437979933</v>
+        <v>0.8900824851439878</v>
       </c>
       <c r="C106" t="n">
-        <v>2.165632146280528</v>
+        <v>0.7504591819304061</v>
       </c>
       <c r="D106" t="n">
-        <v>2.412843629371645</v>
+        <v>0.9434418292316638</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>21.11191397073686</v>
+        <v>0.285410394933091</v>
       </c>
       <c r="C107" t="n">
-        <v>4.567194517720536</v>
+        <v>0.4139572013461001</v>
       </c>
       <c r="D107" t="n">
-        <v>4.594770284871363</v>
+        <v>0.534238144401063</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7.151244809432706</v>
+        <v>0.1517862838979234</v>
       </c>
       <c r="C108" t="n">
-        <v>2.641399467902843</v>
+        <v>0.3009893555974246</v>
       </c>
       <c r="D108" t="n">
-        <v>2.674181147460416</v>
+        <v>0.3895975922640224</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>8.610394459288738</v>
+        <v>0.3262661353884568</v>
       </c>
       <c r="C109" t="n">
-        <v>2.88187200860952</v>
+        <v>0.4515884746788185</v>
       </c>
       <c r="D109" t="n">
-        <v>2.934347365137389</v>
+        <v>0.5711971073004982</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.099825583562192</v>
+        <v>0.2084947981049239</v>
       </c>
       <c r="C110" t="n">
-        <v>2.40636447378392</v>
+        <v>0.3421153333978325</v>
       </c>
       <c r="D110" t="n">
-        <v>2.469782497217557</v>
+        <v>0.4566123061251459</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.359354375892252</v>
+        <v>0.2662807590639572</v>
       </c>
       <c r="C111" t="n">
-        <v>2.231400676262734</v>
+        <v>0.4095596442003944</v>
       </c>
       <c r="D111" t="n">
-        <v>2.315027942788651</v>
+        <v>0.5160239907833328</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.653438998515855</v>
+        <v>0.5213371886122165</v>
       </c>
       <c r="C112" t="n">
-        <v>1.414640839188144</v>
+        <v>0.5849919996238275</v>
       </c>
       <c r="D112" t="n">
-        <v>1.62893799713674</v>
+        <v>0.7220368332794501</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>26.21096372038996</v>
+        <v>1.148261540311856</v>
       </c>
       <c r="C113" t="n">
-        <v>4.917063620489329</v>
+        <v>0.8222604090014413</v>
       </c>
       <c r="D113" t="n">
-        <v>5.119664414821537</v>
+        <v>1.071569661903441</v>
       </c>
     </row>
   </sheetData>
